--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ereg-Erbb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ereg-Erbb4.xlsx
@@ -531,28 +531,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.439892</v>
+        <v>0.4398919999999999</v>
       </c>
       <c r="H2">
         <v>1.319676</v>
       </c>
       <c r="I2">
-        <v>0.9022759344950937</v>
+        <v>0.719974794695429</v>
       </c>
       <c r="J2">
-        <v>0.9326569439222482</v>
+        <v>0.794097205716256</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.005425999999999999</v>
+        <v>0.0108025</v>
       </c>
       <c r="N2">
-        <v>0.010852</v>
+        <v>0.021605</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.002386853992</v>
+        <v>0.004751933329999999</v>
       </c>
       <c r="R2">
-        <v>0.014321123952</v>
+        <v>0.02851159998</v>
       </c>
       <c r="S2">
-        <v>0.9022759344950937</v>
+        <v>0.719974794695429</v>
       </c>
       <c r="T2">
-        <v>0.9326569439222482</v>
+        <v>0.794097205716256</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,34 +587,34 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.047644</v>
+        <v>0.1710905</v>
       </c>
       <c r="H3">
-        <v>0.095288</v>
+        <v>0.342181</v>
       </c>
       <c r="I3">
-        <v>0.0977240655049063</v>
+        <v>0.2800252053045709</v>
       </c>
       <c r="J3">
-        <v>0.06734305607775179</v>
+        <v>0.2059027942837441</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.005425999999999999</v>
+        <v>0.0108025</v>
       </c>
       <c r="N3">
-        <v>0.010852</v>
+        <v>0.021605</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -623,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.000258516344</v>
+        <v>0.00184820512625</v>
       </c>
       <c r="R3">
-        <v>0.001034065376</v>
+        <v>0.007392820505</v>
       </c>
       <c r="S3">
-        <v>0.0977240655049063</v>
+        <v>0.2800252053045709</v>
       </c>
       <c r="T3">
-        <v>0.06734305607775179</v>
+        <v>0.2059027942837441</v>
       </c>
     </row>
   </sheetData>
